--- a/sources/Saami_Southern_data.xlsx
+++ b/sources/Saami_Southern_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="726">
   <si>
     <t>language_no</t>
   </si>
@@ -1644,9 +1644,6 @@
     <t>sovhten</t>
   </si>
   <si>
-    <t>Глагол, означающий "болеть гриппом/простудой", другие болезни пока проверить не удалось; переспросим</t>
-  </si>
-  <si>
     <t>aerkie</t>
   </si>
   <si>
@@ -1668,9 +1665,6 @@
     <t>jeenjh atna</t>
   </si>
   <si>
-    <t>В этом варианте "быть много", а не "быть достаточно", но Рихард всё же включил это в анкету; я добавила в анкету дополнительный вопрос, но весьма вероятно, что это ни к чему не приведёт</t>
-  </si>
-  <si>
     <t>pliere-sne</t>
   </si>
   <si>
@@ -1719,30 +1713,6 @@
     <t>NOM_GENsijse</t>
   </si>
   <si>
-    <r>
-      <t>The first translation provided by Richard was "g</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>atan veedtj-i", where "gaatan" is in the Illative. However, that would rather mean 'went to the house'</t>
-    </r>
-  </si>
-  <si>
     <t>vitn-i</t>
   </si>
   <si>
@@ -1920,9 +1890,6 @@
     <t>ACC_NOM</t>
   </si>
   <si>
-    <t>There is no sentential translation, but it follows from Richard's comments that the object is in the accusative, while its name, in the nominative</t>
-  </si>
-  <si>
     <t>päsjva</t>
   </si>
   <si>
@@ -1977,9 +1944,6 @@
     <t>rihpest-i</t>
   </si>
   <si>
-    <t>"Моя рубашка не как твоя", пока не засчитываем</t>
-  </si>
-  <si>
     <t>sjidt-i</t>
   </si>
   <si>
@@ -2100,9 +2064,6 @@
     <t>tjöödtjest-i</t>
   </si>
   <si>
-    <t>"Со СПИНЫ лошади" (элатив на "спине"), это учитывается? Или переспросить?</t>
-  </si>
-  <si>
     <t>goltele</t>
   </si>
   <si>
@@ -2115,27 +2076,18 @@
     <t>gåvla</t>
   </si>
   <si>
-    <t>Нет эквивалента, переспросим</t>
-  </si>
-  <si>
     <t>vuartesje</t>
   </si>
   <si>
     <t>sjigk-i</t>
   </si>
   <si>
-    <t>То же, что и 48.</t>
-  </si>
-  <si>
     <t>The only translation obtained is "X is with Y" (NOM_COM). I cannot include it in the database</t>
   </si>
   <si>
     <t>traakeste</t>
   </si>
   <si>
-    <t>Только "They take 12 crowns for this cup"; переспросим</t>
-  </si>
-  <si>
     <t>skööht-i</t>
   </si>
   <si>
@@ -2148,9 +2100,6 @@
     <t>То же, что в 42 (и в 82 другое управление)</t>
   </si>
   <si>
-    <t>Нет эквивалента пока, уточним</t>
-  </si>
-  <si>
     <t>bovv-i</t>
   </si>
   <si>
@@ -2196,9 +2145,6 @@
     <t>То же, что 58</t>
   </si>
   <si>
-    <t>Нет эквивалента, только want to have, переспросим</t>
-  </si>
-  <si>
     <t>måaskan sjidteme</t>
   </si>
   <si>
@@ -2220,26 +2166,47 @@
     <t>käinn</t>
   </si>
   <si>
-    <t>Пока что единственный полученный эквивалент включает подчиненную клаузу</t>
-  </si>
-  <si>
-    <t>Pending question for Richard</t>
-  </si>
-  <si>
-    <t>Is this right?</t>
-  </si>
-  <si>
-    <t>Pending question for Richard. I (S.S.) had a typo in my original question: "Yes, It'd be safer to find a noun which can be used in this construction withOUT any reference to its part (if 'horse' is not possible, you can try 'a ladder', or 'a table' for that matter; but 'horse' is the best)"</t>
-  </si>
-  <si>
-    <t>Pending question for Richard: Is sleeping implied in this example (as was initially planned)? No way to express a contrast like dream of / dream about?</t>
+    <t>Pending question for Richard. Глагол, означающий "болеть гриппом/простудой", другие болезни пока проверить не удалось; переспросим</t>
+  </si>
+  <si>
+    <t>Pending question for Richard. В этом варианте "быть много", а не "быть достаточно", но Рихард всё же включил это в анкету; я добавила в анкету дополнительный вопрос, но весьма вероятно, что это ни к чему не приведёт</t>
+  </si>
+  <si>
+    <t>The first translation provided by Richard was "gaatan veedtj-i", where "gaatan" is in the Illative. However, that would rather mean 'went to the house'</t>
+  </si>
+  <si>
+    <t>Is this right?. There is no sentential translation, but it follows from Richard's comments that the object is in the accusative, while its name, in the nominative</t>
+  </si>
+  <si>
+    <t>Pending question for Richard. "Моя рубашка не как твоя", пока не засчитываем</t>
+  </si>
+  <si>
+    <t>Pending question for Richard. I (S.S.) had a typo in my original question: "Yes, It'd be safer to find a noun which can be used in this construction withOUT any reference to its part (if 'horse' is not possible, you can try 'a ladder', or 'a table' for that matter; but 'horse' is the best)". "Со СПИНЫ лошади" (элатив на "спине"), это учитывается? Или переспросить?</t>
+  </si>
+  <si>
+    <t>Pending question for Richard. Нет эквивалента, переспросим</t>
+  </si>
+  <si>
+    <t>Pending question for Richard: Is sleeping implied in this example (as was initially planned)? No way to express a contrast like dream of / dream about?. То же, что и 48.</t>
+  </si>
+  <si>
+    <t>Pending question for Richard. Только "They take 12 crowns for this cup"; переспросим</t>
+  </si>
+  <si>
+    <t>Pending question for Richard. Нет эквивалента пока, уточним</t>
+  </si>
+  <si>
+    <t>Pending question for Richard. Нет эквивалента, только want to have, переспросим</t>
+  </si>
+  <si>
+    <t>Pending question for Richard. Пока что единственный полученный эквивалент включает подчиненную клаузу</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2261,13 +2228,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -2619,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2738,15 +2698,15 @@
         <v>537</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
-        <v>538</v>
-      </c>
+      <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="8"/>
+      <c r="S2" s="8" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
@@ -2781,16 +2741,14 @@
         <v>537</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
-        <v>540</v>
-      </c>
+      <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="8" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -2816,19 +2774,19 @@
         <v>30</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2861,17 +2819,17 @@
         <v>34</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2904,28 +2862,26 @@
         <v>38</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>548</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="8" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -2951,29 +2907,29 @@
         <v>42</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>552</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="8"/>
+      <c r="S7" s="8" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
@@ -2998,27 +2954,27 @@
         <v>46</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>554</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="8"/>
+      <c r="S8" s="8" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
@@ -3043,17 +2999,17 @@
         <v>50</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -3086,17 +3042,17 @@
         <v>54</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -3139,15 +3095,15 @@
         <v>537</v>
       </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
-        <v>557</v>
-      </c>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="8"/>
+      <c r="S11" s="8" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
@@ -3172,29 +3128,29 @@
         <v>62</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>561</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="8"/>
+      <c r="S12" s="8" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
@@ -3219,29 +3175,29 @@
         <v>66</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>565</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="8"/>
+      <c r="S13" s="8" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
@@ -3266,19 +3222,19 @@
         <v>70</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -3311,29 +3267,29 @@
         <v>74</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>571</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="8"/>
+      <c r="S15" s="8" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
@@ -3358,17 +3314,17 @@
         <v>78</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -3401,17 +3357,17 @@
         <v>82</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -3444,19 +3400,19 @@
         <v>86</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -3489,17 +3445,17 @@
         <v>90</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -3532,17 +3488,17 @@
         <v>94</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -3575,17 +3531,17 @@
         <v>98</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -3618,17 +3574,17 @@
         <v>102</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -3661,29 +3617,29 @@
         <v>106</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>584</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="8"/>
+      <c r="S23" s="8" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
@@ -3708,19 +3664,19 @@
         <v>110</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -3753,7 +3709,7 @@
         <v>114</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>537</v>
@@ -3763,15 +3719,15 @@
         <v>537</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="4" t="s">
-        <v>587</v>
-      </c>
+      <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="8"/>
+      <c r="S25" s="8" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
@@ -3796,19 +3752,19 @@
         <v>118</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -3841,17 +3797,17 @@
         <v>122</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -3884,17 +3840,17 @@
         <v>126</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -3927,17 +3883,17 @@
         <v>130</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -3970,17 +3926,17 @@
         <v>134</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -4023,15 +3979,15 @@
         <v>537</v>
       </c>
       <c r="L31" s="4"/>
-      <c r="M31" s="4" t="s">
-        <v>593</v>
-      </c>
+      <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="8"/>
+      <c r="S31" s="8" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
@@ -4056,27 +4012,27 @@
         <v>142</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>595</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="8"/>
+      <c r="S32" s="8" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
@@ -4101,27 +4057,27 @@
         <v>146</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>597</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="8"/>
+      <c r="S33" s="8" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="34" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
@@ -4146,17 +4102,17 @@
         <v>150</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -4189,17 +4145,17 @@
         <v>154</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -4232,17 +4188,17 @@
         <v>158</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -4275,27 +4231,27 @@
         <v>162</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>602</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
-      <c r="S37" s="8"/>
+      <c r="S37" s="8" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="38" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
@@ -4320,17 +4276,17 @@
         <v>166</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -4363,27 +4319,27 @@
         <v>169</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>605</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
-      <c r="S39" s="8"/>
+      <c r="S39" s="8" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="40" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
@@ -4408,17 +4364,17 @@
         <v>173</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -4451,17 +4407,17 @@
         <v>177</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -4494,17 +4450,17 @@
         <v>181</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -4537,27 +4493,27 @@
         <v>185</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>610</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
-      <c r="S43" s="8"/>
+      <c r="S43" s="8" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="44" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
@@ -4582,17 +4538,17 @@
         <v>189</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -4625,17 +4581,17 @@
         <v>193</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -4668,17 +4624,17 @@
         <v>197</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -4711,17 +4667,17 @@
         <v>201</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -4754,19 +4710,19 @@
         <v>205</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -4799,29 +4755,29 @@
         <v>209</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>619</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
-      <c r="S49" s="8"/>
+      <c r="S49" s="8" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
@@ -4846,17 +4802,17 @@
         <v>213</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -4889,17 +4845,17 @@
         <v>217</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -4932,30 +4888,28 @@
         <v>221</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>625</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="8" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -4981,17 +4935,17 @@
         <v>225</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
@@ -5024,17 +4978,17 @@
         <v>229</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
@@ -5067,19 +5021,19 @@
         <v>233</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="I55" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="J55" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -5112,27 +5066,27 @@
         <v>237</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>630</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
-      <c r="S56" s="8"/>
+      <c r="S56" s="8" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
@@ -5157,17 +5111,17 @@
         <v>241</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -5200,17 +5154,17 @@
         <v>245</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -5243,27 +5197,27 @@
         <v>249</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>634</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
-      <c r="S59" s="8"/>
+      <c r="S59" s="8" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
@@ -5288,17 +5242,17 @@
         <v>253</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -5331,29 +5285,29 @@
         <v>257</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>639</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
-      <c r="S61" s="8"/>
+      <c r="S61" s="8" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
@@ -5378,7 +5332,7 @@
         <v>261</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>537</v>
@@ -5388,15 +5342,15 @@
         <v>537</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="4" t="s">
-        <v>641</v>
-      </c>
+      <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
-      <c r="S62" s="8"/>
+      <c r="S62" s="8" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
@@ -5421,17 +5375,17 @@
         <v>265</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -5464,17 +5418,17 @@
         <v>269</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -5517,16 +5471,14 @@
         <v>537</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="4" t="s">
-        <v>644</v>
-      </c>
+      <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
       <c r="S65" s="8" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -5552,29 +5504,29 @@
         <v>277</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>648</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
-      <c r="S66" s="8"/>
+      <c r="S66" s="8" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="67" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
@@ -5609,15 +5561,15 @@
         <v>537</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="4" t="s">
-        <v>649</v>
-      </c>
+      <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
-      <c r="S67" s="8"/>
+      <c r="S67" s="8" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
@@ -5642,29 +5594,29 @@
         <v>285</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I68" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="J68" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>651</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
-      <c r="S68" s="8"/>
+      <c r="S68" s="8" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
@@ -5689,29 +5641,29 @@
         <v>289</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>655</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
-      <c r="S69" s="8"/>
+      <c r="S69" s="8" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
@@ -5736,17 +5688,17 @@
         <v>293</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -5779,17 +5731,17 @@
         <v>297</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
@@ -5822,17 +5774,17 @@
         <v>301</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
@@ -5865,17 +5817,17 @@
         <v>305</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -5908,19 +5860,19 @@
         <v>309</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
@@ -5953,17 +5905,17 @@
         <v>313</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
@@ -5996,17 +5948,17 @@
         <v>317</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
@@ -6039,17 +5991,17 @@
         <v>321</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J77" s="4"/>
       <c r="K77" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -6082,17 +6034,17 @@
         <v>325</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J78" s="4"/>
       <c r="K78" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -6125,17 +6077,17 @@
         <v>329</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
@@ -6168,17 +6120,17 @@
         <v>333</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J80" s="4"/>
       <c r="K80" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
@@ -6211,29 +6163,29 @@
         <v>337</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>668</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
-      <c r="S81" s="8"/>
+      <c r="S81" s="8" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="82" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
@@ -6258,19 +6210,19 @@
         <v>341</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
@@ -6303,29 +6255,29 @@
         <v>345</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>673</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
-      <c r="S83" s="8"/>
+      <c r="S83" s="8" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
@@ -6350,29 +6302,29 @@
         <v>349</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>677</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
-      <c r="S84" s="8"/>
+      <c r="S84" s="8" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="85" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
@@ -6397,19 +6349,19 @@
         <v>353</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
@@ -6442,17 +6394,17 @@
         <v>357</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
@@ -6485,17 +6437,17 @@
         <v>361</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J87" s="4"/>
       <c r="K87" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
@@ -6528,17 +6480,17 @@
         <v>365</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
@@ -6571,17 +6523,17 @@
         <v>369</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
@@ -6614,17 +6566,17 @@
         <v>373</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
@@ -6657,30 +6609,28 @@
         <v>377</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="I91" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="J91" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="M91" s="4" t="s">
-        <v>685</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="8" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -6706,27 +6656,27 @@
         <v>381</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>687</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
-      <c r="S92" s="8"/>
+      <c r="S92" s="8" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A93" s="4">
@@ -6751,27 +6701,27 @@
         <v>385</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M93" s="4" t="s">
-        <v>688</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
-      <c r="S93" s="8"/>
+      <c r="S93" s="8" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
@@ -6796,17 +6746,17 @@
         <v>389</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
@@ -6849,16 +6799,14 @@
         <v>537</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="4" t="s">
-        <v>690</v>
-      </c>
+      <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
       <c r="S95" s="8" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -6884,17 +6832,17 @@
         <v>397</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
@@ -6927,17 +6875,17 @@
         <v>401</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
@@ -6970,30 +6918,28 @@
         <v>405</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="M98" s="4" t="s">
-        <v>693</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
       <c r="S98" s="8" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -7029,15 +6975,15 @@
         <v>537</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="4" t="s">
-        <v>694</v>
-      </c>
+      <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="6"/>
       <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
-      <c r="S99" s="8"/>
+      <c r="S99" s="8" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="100" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
@@ -7062,19 +7008,19 @@
         <v>413</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
@@ -7117,16 +7063,14 @@
         <v>537</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="4" t="s">
-        <v>696</v>
-      </c>
+      <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
       <c r="S101" s="8" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -7152,27 +7096,27 @@
         <v>421</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M102" s="4" t="s">
-        <v>698</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
-      <c r="S102" s="8"/>
+      <c r="S102" s="8" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="103" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A103" s="4">
@@ -7197,17 +7141,17 @@
         <v>425</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
@@ -7240,27 +7184,27 @@
         <v>428</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M104" s="4" t="s">
-        <v>700</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
-      <c r="S104" s="8"/>
+      <c r="S104" s="8" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
@@ -7295,16 +7239,14 @@
         <v>537</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="4" t="s">
-        <v>701</v>
-      </c>
+      <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
       <c r="S105" s="8" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -7330,17 +7272,17 @@
         <v>436</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
@@ -7373,17 +7315,17 @@
         <v>439</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
@@ -7416,17 +7358,17 @@
         <v>443</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
@@ -7459,17 +7401,17 @@
         <v>447</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
@@ -7502,17 +7444,17 @@
         <v>451</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
@@ -7545,17 +7487,17 @@
         <v>455</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
@@ -7598,15 +7540,15 @@
         <v>537</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="4" t="s">
-        <v>593</v>
-      </c>
+      <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
-      <c r="S112" s="8"/>
+      <c r="S112" s="8" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="113" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A113" s="4">
@@ -7631,19 +7573,19 @@
         <v>463</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K113" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
@@ -7676,27 +7618,27 @@
         <v>467</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M114" s="4" t="s">
-        <v>710</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
-      <c r="S114" s="8"/>
+      <c r="S114" s="8" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="115" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A115" s="4">
@@ -7721,27 +7663,27 @@
         <v>471</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M115" s="4" t="s">
-        <v>711</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
-      <c r="S115" s="8"/>
+      <c r="S115" s="8" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="116" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A116" s="4">
@@ -7776,15 +7718,15 @@
         <v>537</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="4" t="s">
-        <v>593</v>
-      </c>
+      <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
-      <c r="S116" s="8"/>
+      <c r="S116" s="8" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="117" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A117" s="4">
@@ -7809,17 +7751,17 @@
         <v>479</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
@@ -7852,29 +7794,29 @@
         <v>483</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K118" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="M118" s="4" t="s">
-        <v>714</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
       <c r="R118" s="6"/>
-      <c r="S118" s="8"/>
+      <c r="S118" s="8" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="119" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A119" s="4">
@@ -7909,16 +7851,14 @@
         <v>537</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="4" t="s">
-        <v>690</v>
-      </c>
+      <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
       <c r="S119" s="8" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -7944,27 +7884,27 @@
         <v>490</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J120" s="4"/>
       <c r="K120" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M120" s="4" t="s">
-        <v>716</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
       <c r="R120" s="6"/>
-      <c r="S120" s="8"/>
+      <c r="S120" s="8" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="121" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A121" s="4">
@@ -7999,15 +7939,15 @@
         <v>537</v>
       </c>
       <c r="L121" s="4"/>
-      <c r="M121" s="4" t="s">
-        <v>593</v>
-      </c>
+      <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
       <c r="R121" s="6"/>
-      <c r="S121" s="8"/>
+      <c r="S121" s="8" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="122" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A122" s="4">
@@ -8042,16 +7982,14 @@
         <v>537</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="4" t="s">
-        <v>717</v>
-      </c>
+      <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
       <c r="R122" s="6"/>
       <c r="S122" s="8" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="123" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -8077,29 +8015,29 @@
         <v>502</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K123" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="M123" s="4" t="s">
-        <v>719</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
       <c r="R123" s="6"/>
-      <c r="S123" s="8"/>
+      <c r="S123" s="8" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="124" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A124" s="4">
@@ -8124,29 +8062,29 @@
         <v>506</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K124" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="M124" s="4" t="s">
-        <v>720</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
-      <c r="S124" s="8"/>
+      <c r="S124" s="8" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="125" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A125" s="4">
@@ -8171,17 +8109,17 @@
         <v>510</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J125" s="4"/>
       <c r="K125" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
@@ -8224,15 +8162,15 @@
         <v>537</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="4" t="s">
-        <v>593</v>
-      </c>
+      <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
-      <c r="S126" s="8"/>
+      <c r="S126" s="8" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="127" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A127" s="4">
@@ -8267,15 +8205,15 @@
         <v>537</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="4" t="s">
-        <v>593</v>
-      </c>
+      <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
       <c r="R127" s="6"/>
-      <c r="S127" s="8"/>
+      <c r="S127" s="8" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="128" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A128" s="4">
@@ -8310,15 +8248,15 @@
         <v>537</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="4" t="s">
-        <v>593</v>
-      </c>
+      <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
-      <c r="S128" s="8"/>
+      <c r="S128" s="8" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="129" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A129" s="4">
@@ -8343,27 +8281,27 @@
         <v>526</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J129" s="4"/>
       <c r="K129" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="M129" s="4" t="s">
-        <v>723</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
-      <c r="S129" s="8"/>
+      <c r="S129" s="8" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="130" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A130" s="4">
@@ -8398,15 +8336,15 @@
         <v>537</v>
       </c>
       <c r="L130" s="4"/>
-      <c r="M130" s="4" t="s">
-        <v>593</v>
-      </c>
+      <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
       <c r="R130" s="6"/>
-      <c r="S130" s="8"/>
+      <c r="S130" s="8" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="131" spans="1:19" ht="18" x14ac:dyDescent="0.4">
       <c r="A131" s="4">
@@ -8431,7 +8369,7 @@
         <v>534</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>537</v>
@@ -8441,16 +8379,14 @@
         <v>537</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="4" t="s">
-        <v>725</v>
-      </c>
+      <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
       <c r="R131" s="6"/>
       <c r="S131" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>

--- a/sources/Saami_Southern_data.xlsx
+++ b/sources/Saami_Southern_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="726">
   <si>
     <t>language_no</t>
   </si>
@@ -2579,9 +2579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2693,7 +2691,9 @@
       <c r="I2" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K2" s="4" t="s">
         <v>537</v>
       </c>
@@ -2736,7 +2736,9 @@
       <c r="I3" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K3" s="4" t="s">
         <v>537</v>
       </c>
@@ -2822,9 +2824,11 @@
         <v>544</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J5" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K5" s="4" t="s">
         <v>545</v>
       </c>
@@ -2865,9 +2869,11 @@
         <v>546</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J6" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K6" s="4" t="s">
         <v>545</v>
       </c>
@@ -2957,9 +2963,11 @@
         <v>551</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J8" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K8" s="4" t="s">
         <v>545</v>
       </c>
@@ -3002,9 +3010,11 @@
         <v>553</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J9" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K9" s="4" t="s">
         <v>545</v>
       </c>
@@ -3045,9 +3055,11 @@
         <v>554</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J10" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K10" s="4" t="s">
         <v>545</v>
       </c>
@@ -3090,7 +3102,9 @@
       <c r="I11" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K11" s="4" t="s">
         <v>537</v>
       </c>
@@ -3317,9 +3331,11 @@
         <v>569</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J16" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K16" s="4" t="s">
         <v>545</v>
       </c>
@@ -3360,9 +3376,11 @@
         <v>570</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J17" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K17" s="4" t="s">
         <v>545</v>
       </c>
@@ -3448,9 +3466,11 @@
         <v>574</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J19" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K19" s="4" t="s">
         <v>545</v>
       </c>
@@ -3491,9 +3511,11 @@
         <v>575</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J20" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K20" s="4" t="s">
         <v>545</v>
       </c>
@@ -3534,9 +3556,11 @@
         <v>576</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J21" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K21" s="4" t="s">
         <v>545</v>
       </c>
@@ -3577,9 +3601,11 @@
         <v>577</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J22" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K22" s="4" t="s">
         <v>545</v>
       </c>
@@ -3714,7 +3740,9 @@
       <c r="I25" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K25" s="4" t="s">
         <v>537</v>
       </c>
@@ -3800,9 +3828,11 @@
         <v>586</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J27" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K27" s="4" t="s">
         <v>545</v>
       </c>
@@ -3843,9 +3873,11 @@
         <v>587</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J28" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K28" s="4" t="s">
         <v>545</v>
       </c>
@@ -3886,9 +3918,11 @@
         <v>588</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J29" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K29" s="4" t="s">
         <v>545</v>
       </c>
@@ -3929,9 +3963,11 @@
         <v>589</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J30" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K30" s="4" t="s">
         <v>545</v>
       </c>
@@ -3974,7 +4010,9 @@
       <c r="I31" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K31" s="4" t="s">
         <v>537</v>
       </c>
@@ -4015,9 +4053,11 @@
         <v>591</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J32" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K32" s="4" t="s">
         <v>545</v>
       </c>
@@ -4060,9 +4100,11 @@
         <v>593</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J33" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K33" s="4" t="s">
         <v>545</v>
       </c>
@@ -4105,9 +4147,11 @@
         <v>595</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J34" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K34" s="4" t="s">
         <v>545</v>
       </c>
@@ -4148,9 +4192,11 @@
         <v>596</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J35" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K35" s="4" t="s">
         <v>545</v>
       </c>
@@ -4191,9 +4237,11 @@
         <v>597</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J36" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K36" s="4" t="s">
         <v>545</v>
       </c>
@@ -4234,9 +4282,11 @@
         <v>598</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J37" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K37" s="4" t="s">
         <v>545</v>
       </c>
@@ -4279,9 +4329,11 @@
         <v>600</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J38" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K38" s="4" t="s">
         <v>545</v>
       </c>
@@ -4322,9 +4374,11 @@
         <v>601</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J39" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K39" s="4" t="s">
         <v>545</v>
       </c>
@@ -4367,9 +4421,11 @@
         <v>603</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J40" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K40" s="4" t="s">
         <v>545</v>
       </c>
@@ -4410,9 +4466,11 @@
         <v>604</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J41" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K41" s="4" t="s">
         <v>545</v>
       </c>
@@ -4453,9 +4511,11 @@
         <v>605</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J42" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K42" s="4" t="s">
         <v>545</v>
       </c>
@@ -4496,9 +4556,11 @@
         <v>606</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J43" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K43" s="4" t="s">
         <v>545</v>
       </c>
@@ -4541,9 +4603,11 @@
         <v>608</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J44" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K44" s="4" t="s">
         <v>545</v>
       </c>
@@ -4584,9 +4648,11 @@
         <v>609</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J45" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K45" s="4" t="s">
         <v>545</v>
       </c>
@@ -4627,9 +4693,11 @@
         <v>610</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J46" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K46" s="4" t="s">
         <v>545</v>
       </c>
@@ -4670,9 +4738,11 @@
         <v>611</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J47" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K47" s="4" t="s">
         <v>545</v>
       </c>
@@ -4805,9 +4875,11 @@
         <v>617</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J50" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K50" s="4" t="s">
         <v>545</v>
       </c>
@@ -4848,9 +4920,11 @@
         <v>618</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J51" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K51" s="4" t="s">
         <v>545</v>
       </c>
@@ -4938,9 +5012,11 @@
         <v>622</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J53" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K53" s="4" t="s">
         <v>545</v>
       </c>
@@ -4981,9 +5057,11 @@
         <v>623</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J54" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K54" s="4" t="s">
         <v>545</v>
       </c>
@@ -5069,9 +5147,11 @@
         <v>625</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J56" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K56" s="4" t="s">
         <v>545</v>
       </c>
@@ -5114,9 +5194,11 @@
         <v>627</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J57" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K57" s="4" t="s">
         <v>545</v>
       </c>
@@ -5157,9 +5239,11 @@
         <v>628</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J58" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K58" s="4" t="s">
         <v>545</v>
       </c>
@@ -5200,9 +5284,11 @@
         <v>629</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J59" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K59" s="4" t="s">
         <v>545</v>
       </c>
@@ -5245,9 +5331,11 @@
         <v>631</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J60" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K60" s="4" t="s">
         <v>545</v>
       </c>
@@ -5337,7 +5425,9 @@
       <c r="I62" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J62" s="4"/>
+      <c r="J62" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K62" s="4" t="s">
         <v>537</v>
       </c>
@@ -5378,9 +5468,11 @@
         <v>638</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J63" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K63" s="4" t="s">
         <v>545</v>
       </c>
@@ -5421,9 +5513,11 @@
         <v>639</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J64" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K64" s="4" t="s">
         <v>545</v>
       </c>
@@ -5466,7 +5560,9 @@
       <c r="I65" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J65" s="4"/>
+      <c r="J65" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K65" s="4" t="s">
         <v>537</v>
       </c>
@@ -5556,7 +5652,9 @@
       <c r="I67" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J67" s="4"/>
+      <c r="J67" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K67" s="4" t="s">
         <v>537</v>
       </c>
@@ -5691,9 +5789,11 @@
         <v>651</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J70" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K70" s="4" t="s">
         <v>545</v>
       </c>
@@ -5734,9 +5834,11 @@
         <v>652</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J71" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K71" s="4" t="s">
         <v>545</v>
       </c>
@@ -5777,9 +5879,11 @@
         <v>653</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J72" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K72" s="4" t="s">
         <v>545</v>
       </c>
@@ -5820,9 +5924,11 @@
         <v>654</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J73" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K73" s="4" t="s">
         <v>545</v>
       </c>
@@ -5908,9 +6014,11 @@
         <v>656</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J75" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K75" s="4" t="s">
         <v>545</v>
       </c>
@@ -5951,9 +6059,11 @@
         <v>657</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J76" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K76" s="4" t="s">
         <v>545</v>
       </c>
@@ -5994,9 +6104,11 @@
         <v>658</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J77" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K77" s="4" t="s">
         <v>545</v>
       </c>
@@ -6037,9 +6149,11 @@
         <v>659</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J78" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K78" s="4" t="s">
         <v>545</v>
       </c>
@@ -6080,9 +6194,11 @@
         <v>660</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J79" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K79" s="4" t="s">
         <v>545</v>
       </c>
@@ -6123,9 +6239,11 @@
         <v>661</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J80" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K80" s="4" t="s">
         <v>545</v>
       </c>
@@ -6397,9 +6515,11 @@
         <v>674</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J86" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K86" s="4" t="s">
         <v>545</v>
       </c>
@@ -6440,9 +6560,11 @@
         <v>675</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J87" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K87" s="4" t="s">
         <v>545</v>
       </c>
@@ -6483,9 +6605,11 @@
         <v>676</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J88" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K88" s="4" t="s">
         <v>545</v>
       </c>
@@ -6526,9 +6650,11 @@
         <v>677</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J89" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K89" s="4" t="s">
         <v>545</v>
       </c>
@@ -6569,9 +6695,11 @@
         <v>678</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J90" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K90" s="4" t="s">
         <v>545</v>
       </c>
@@ -6659,9 +6787,11 @@
         <v>680</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J92" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K92" s="4" t="s">
         <v>545</v>
       </c>
@@ -6704,9 +6834,11 @@
         <v>680</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J93" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K93" s="4" t="s">
         <v>545</v>
       </c>
@@ -6749,9 +6881,11 @@
         <v>683</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J94" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K94" s="4" t="s">
         <v>545</v>
       </c>
@@ -6794,7 +6928,9 @@
       <c r="I95" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J95" s="4"/>
+      <c r="J95" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K95" s="4" t="s">
         <v>537</v>
       </c>
@@ -6835,9 +6971,11 @@
         <v>684</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J96" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K96" s="4" t="s">
         <v>545</v>
       </c>
@@ -6878,9 +7016,11 @@
         <v>685</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J97" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K97" s="4" t="s">
         <v>545</v>
       </c>
@@ -6970,7 +7110,9 @@
       <c r="I99" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J99" s="4"/>
+      <c r="J99" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K99" s="4" t="s">
         <v>537</v>
       </c>
@@ -7058,7 +7200,9 @@
       <c r="I101" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J101" s="4"/>
+      <c r="J101" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K101" s="4" t="s">
         <v>537</v>
       </c>
@@ -7099,9 +7243,11 @@
         <v>688</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J102" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K102" s="4" t="s">
         <v>545</v>
       </c>
@@ -7144,9 +7290,11 @@
         <v>690</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J103" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K103" s="4" t="s">
         <v>545</v>
       </c>
@@ -7187,9 +7335,11 @@
         <v>665</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J104" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K104" s="4" t="s">
         <v>545</v>
       </c>
@@ -7234,7 +7384,9 @@
       <c r="I105" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J105" s="4"/>
+      <c r="J105" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K105" s="4" t="s">
         <v>537</v>
       </c>
@@ -7275,9 +7427,11 @@
         <v>692</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J106" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K106" s="4" t="s">
         <v>545</v>
       </c>
@@ -7318,9 +7472,11 @@
         <v>693</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J107" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K107" s="4" t="s">
         <v>545</v>
       </c>
@@ -7361,9 +7517,11 @@
         <v>694</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J108" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K108" s="4" t="s">
         <v>545</v>
       </c>
@@ -7404,9 +7562,11 @@
         <v>695</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J109" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K109" s="4" t="s">
         <v>545</v>
       </c>
@@ -7447,9 +7607,11 @@
         <v>696</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J110" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K110" s="4" t="s">
         <v>545</v>
       </c>
@@ -7490,9 +7652,11 @@
         <v>697</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J111" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K111" s="4" t="s">
         <v>545</v>
       </c>
@@ -7535,7 +7699,9 @@
       <c r="I112" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J112" s="4"/>
+      <c r="J112" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K112" s="4" t="s">
         <v>537</v>
       </c>
@@ -7621,9 +7787,11 @@
         <v>699</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J114" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K114" s="4" t="s">
         <v>545</v>
       </c>
@@ -7666,9 +7834,11 @@
         <v>551</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J115" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K115" s="4" t="s">
         <v>545</v>
       </c>
@@ -7713,7 +7883,9 @@
       <c r="I116" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J116" s="4"/>
+      <c r="J116" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K116" s="4" t="s">
         <v>537</v>
       </c>
@@ -7754,9 +7926,11 @@
         <v>702</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J117" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K117" s="4" t="s">
         <v>545</v>
       </c>
@@ -7846,7 +8020,9 @@
       <c r="I119" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J119" s="4"/>
+      <c r="J119" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K119" s="4" t="s">
         <v>537</v>
       </c>
@@ -7887,9 +8063,11 @@
         <v>705</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J120" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K120" s="4" t="s">
         <v>545</v>
       </c>
@@ -7934,7 +8112,9 @@
       <c r="I121" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J121" s="4"/>
+      <c r="J121" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K121" s="4" t="s">
         <v>537</v>
       </c>
@@ -7977,7 +8157,9 @@
       <c r="I122" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J122" s="4"/>
+      <c r="J122" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K122" s="4" t="s">
         <v>537</v>
       </c>
@@ -8112,9 +8294,11 @@
         <v>710</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J125" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K125" s="4" t="s">
         <v>545</v>
       </c>
@@ -8157,7 +8341,9 @@
       <c r="I126" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J126" s="4"/>
+      <c r="J126" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K126" s="4" t="s">
         <v>537</v>
       </c>
@@ -8200,7 +8386,9 @@
       <c r="I127" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J127" s="4"/>
+      <c r="J127" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K127" s="4" t="s">
         <v>537</v>
       </c>
@@ -8243,7 +8431,9 @@
       <c r="I128" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J128" s="4"/>
+      <c r="J128" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K128" s="4" t="s">
         <v>537</v>
       </c>
@@ -8284,9 +8474,11 @@
         <v>711</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J129" s="4"/>
+        <v>541</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="K129" s="4" t="s">
         <v>545</v>
       </c>
@@ -8331,7 +8523,9 @@
       <c r="I130" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J130" s="4"/>
+      <c r="J130" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K130" s="4" t="s">
         <v>537</v>
       </c>
@@ -8374,7 +8568,9 @@
       <c r="I131" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J131" s="4"/>
+      <c r="J131" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K131" s="4" t="s">
         <v>537</v>
       </c>

--- a/sources/Saami_Southern_data.xlsx
+++ b/sources/Saami_Southern_data.xlsx
@@ -1947,9 +1947,6 @@
     <t>sjidt-i</t>
   </si>
   <si>
-    <t>GENmänngan</t>
-  </si>
-  <si>
     <t>NOM_GENmanngan</t>
   </si>
   <si>
@@ -2034,9 +2031,6 @@
     <t>feejjen sjidt-i</t>
   </si>
   <si>
-    <t>GENåvteste</t>
-  </si>
-  <si>
     <t>NOM_GENavteste</t>
   </si>
   <si>
@@ -2200,6 +2194,12 @@
   </si>
   <si>
     <t>Pending question for Richard. Пока что единственный полученный эквивалент включает подчиненную клаузу</t>
+  </si>
+  <si>
+    <t>GENavteste</t>
+  </si>
+  <si>
+    <t>GENmanngan</t>
   </si>
 </sst>
 </file>
@@ -2579,7 +2579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J132" sqref="J132"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2750,7 +2752,7 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -2887,7 +2889,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -3210,7 +3212,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="8" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -4983,7 +4985,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -5574,7 +5576,7 @@
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
       <c r="S65" s="8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -5606,13 +5608,13 @@
         <v>541</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>641</v>
+        <v>725</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -5621,7 +5623,7 @@
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -5666,7 +5668,7 @@
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
       <c r="S67" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -5692,7 +5694,7 @@
         <v>285</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>541</v>
@@ -5713,7 +5715,7 @@
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -5739,19 +5741,19 @@
         <v>289</v>
       </c>
       <c r="H69" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="J69" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>648</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
@@ -5760,7 +5762,7 @@
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
       <c r="S69" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -5786,7 +5788,7 @@
         <v>293</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>541</v>
@@ -5831,7 +5833,7 @@
         <v>297</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>541</v>
@@ -5876,7 +5878,7 @@
         <v>301</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>541</v>
@@ -5921,7 +5923,7 @@
         <v>305</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>541</v>
@@ -5966,7 +5968,7 @@
         <v>309</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>541</v>
@@ -6011,7 +6013,7 @@
         <v>313</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>541</v>
@@ -6056,7 +6058,7 @@
         <v>317</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>541</v>
@@ -6101,7 +6103,7 @@
         <v>321</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>541</v>
@@ -6146,7 +6148,7 @@
         <v>325</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>541</v>
@@ -6191,7 +6193,7 @@
         <v>329</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>541</v>
@@ -6236,7 +6238,7 @@
         <v>333</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>541</v>
@@ -6281,7 +6283,7 @@
         <v>337</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>541</v>
@@ -6302,7 +6304,7 @@
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
       <c r="S81" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -6328,7 +6330,7 @@
         <v>341</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>541</v>
@@ -6373,19 +6375,19 @@
         <v>345</v>
       </c>
       <c r="H83" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="J83" s="4" t="s">
         <v>665</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>666</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
@@ -6394,7 +6396,7 @@
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -6420,19 +6422,19 @@
         <v>349</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>541</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>670</v>
+        <v>724</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
@@ -6441,7 +6443,7 @@
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -6467,7 +6469,7 @@
         <v>353</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>541</v>
@@ -6512,7 +6514,7 @@
         <v>357</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>541</v>
@@ -6557,7 +6559,7 @@
         <v>361</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>541</v>
@@ -6602,7 +6604,7 @@
         <v>365</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>541</v>
@@ -6647,7 +6649,7 @@
         <v>369</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>541</v>
@@ -6692,7 +6694,7 @@
         <v>373</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>541</v>
@@ -6737,7 +6739,7 @@
         <v>377</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>541</v>
@@ -6758,7 +6760,7 @@
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -6784,7 +6786,7 @@
         <v>381</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>541</v>
@@ -6805,7 +6807,7 @@
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -6831,7 +6833,7 @@
         <v>385</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>541</v>
@@ -6852,7 +6854,7 @@
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
       <c r="S93" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -6878,7 +6880,7 @@
         <v>389</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>541</v>
@@ -6942,7 +6944,7 @@
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
       <c r="S95" s="8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -6968,7 +6970,7 @@
         <v>397</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>541</v>
@@ -7013,7 +7015,7 @@
         <v>401</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>541</v>
@@ -7079,7 +7081,7 @@
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
       <c r="S98" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -7124,7 +7126,7 @@
       <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
       <c r="S99" s="8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -7150,7 +7152,7 @@
         <v>413</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>541</v>
@@ -7214,7 +7216,7 @@
       <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
       <c r="S101" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -7240,7 +7242,7 @@
         <v>421</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>541</v>
@@ -7261,7 +7263,7 @@
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
       <c r="S102" s="8" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -7287,7 +7289,7 @@
         <v>425</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I103" s="4" t="s">
         <v>541</v>
@@ -7332,7 +7334,7 @@
         <v>428</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>541</v>
@@ -7353,7 +7355,7 @@
       <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
       <c r="S104" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -7398,7 +7400,7 @@
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
       <c r="S105" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -7424,7 +7426,7 @@
         <v>436</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I106" s="4" t="s">
         <v>541</v>
@@ -7469,7 +7471,7 @@
         <v>439</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I107" s="4" t="s">
         <v>541</v>
@@ -7514,7 +7516,7 @@
         <v>443</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>541</v>
@@ -7559,7 +7561,7 @@
         <v>447</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I109" s="4" t="s">
         <v>541</v>
@@ -7604,7 +7606,7 @@
         <v>451</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I110" s="4" t="s">
         <v>541</v>
@@ -7649,7 +7651,7 @@
         <v>455</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I111" s="4" t="s">
         <v>541</v>
@@ -7739,7 +7741,7 @@
         <v>463</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I113" s="4" t="s">
         <v>541</v>
@@ -7784,7 +7786,7 @@
         <v>467</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I114" s="4" t="s">
         <v>541</v>
@@ -7805,7 +7807,7 @@
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
       <c r="S114" s="8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -7852,7 +7854,7 @@
       <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
       <c r="S115" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -7923,7 +7925,7 @@
         <v>479</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I117" s="4" t="s">
         <v>541</v>
@@ -7968,7 +7970,7 @@
         <v>483</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I118" s="4" t="s">
         <v>541</v>
@@ -7989,7 +7991,7 @@
       <c r="Q118" s="6"/>
       <c r="R118" s="6"/>
       <c r="S118" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -8034,7 +8036,7 @@
       <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
       <c r="S119" s="8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -8060,7 +8062,7 @@
         <v>490</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I120" s="4" t="s">
         <v>541</v>
@@ -8081,7 +8083,7 @@
       <c r="Q120" s="6"/>
       <c r="R120" s="6"/>
       <c r="S120" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -8171,7 +8173,7 @@
       <c r="Q122" s="6"/>
       <c r="R122" s="6"/>
       <c r="S122" s="8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="123" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -8197,7 +8199,7 @@
         <v>502</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="I123" s="4" t="s">
         <v>541</v>
@@ -8218,7 +8220,7 @@
       <c r="Q123" s="6"/>
       <c r="R123" s="6"/>
       <c r="S123" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -8244,7 +8246,7 @@
         <v>506</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="I124" s="4" t="s">
         <v>541</v>
@@ -8265,7 +8267,7 @@
       <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
       <c r="S124" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="125" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -8291,7 +8293,7 @@
         <v>510</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="I125" s="4" t="s">
         <v>541</v>
@@ -8471,7 +8473,7 @@
         <v>526</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I129" s="4" t="s">
         <v>541</v>
@@ -8492,7 +8494,7 @@
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
       <c r="S129" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="18" x14ac:dyDescent="0.4">
@@ -8563,7 +8565,7 @@
         <v>534</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>537</v>
@@ -8582,7 +8584,7 @@
       <c r="Q131" s="6"/>
       <c r="R131" s="6"/>
       <c r="S131" s="8" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
